--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,12 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -55,21 +61,18 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
@@ -82,202 +85,202 @@
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>son</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>husband</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>great</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>family</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>pop</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>tea</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>dish</t>
+    <t>pan</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>works</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>hot</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>long</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
     <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
   </si>
   <si>
     <t>like</t>
@@ -659,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,13 +731,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3023255813953488</v>
+        <v>0.2713178294573643</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9247311827956989</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -820,73 +823,121 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>77</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5">
+        <v>0.8840579710144928</v>
+      </c>
+      <c r="L5">
+        <v>61</v>
+      </c>
+      <c r="M5">
+        <v>61</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.1189189189189189</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>163</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
         <v>0.875</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>112</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>112</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="L6">
-        <v>60</v>
-      </c>
-      <c r="M6">
-        <v>60</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8498452012383901</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>549</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>549</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,21 +949,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8560371517027864</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>553</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>553</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,21 +975,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,21 +1001,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8409090909090909</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,21 +1027,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8051948051948052</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L11">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1002,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1028,47 +1079,47 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>21</v>
-      </c>
-      <c r="K13">
-        <v>0.7445887445887446</v>
-      </c>
-      <c r="L13">
-        <v>172</v>
-      </c>
-      <c r="M13">
-        <v>172</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6923076923076923</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1080,21 +1131,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6779661016949152</v>
+        <v>0.671875</v>
       </c>
       <c r="L15">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1106,47 +1157,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16">
+        <v>0.6712328767123288</v>
+      </c>
+      <c r="L16">
+        <v>49</v>
+      </c>
+      <c r="M16">
+        <v>49</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>24</v>
-      </c>
-      <c r="K16">
-        <v>0.676056338028169</v>
-      </c>
-      <c r="L16">
-        <v>48</v>
-      </c>
-      <c r="M16">
-        <v>48</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6571428571428571</v>
+        <v>0.6460674157303371</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>805</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>805</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1158,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6524879614767255</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L18">
-        <v>813</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>813</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1184,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>433</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6457142857142857</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L19">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1210,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6438356164383562</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1241,16 +1292,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5964912280701754</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1262,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5918367346938775</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1288,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5735294117647058</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1314,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5694444444444444</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1340,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5641025641025641</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1366,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5542168674698795</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1392,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5416666666666666</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1423,16 +1474,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5238095238095238</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1444,15 +1495,15 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.515625</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L29">
         <v>33</v>
@@ -1470,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5128205128205128</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1496,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5081967213114754</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1522,12 +1573,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K32">
         <v>0.5076923076923077</v>
@@ -1553,16 +1604,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.4923076923076923</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1574,21 +1625,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.481203007518797</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L34">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1600,21 +1651,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.47</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L35">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M35">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1626,21 +1677,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.4670658682634731</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L36">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M36">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1652,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.4519230769230769</v>
+        <v>0.43</v>
       </c>
       <c r="L37">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1683,16 +1734,16 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.4509803921568628</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1704,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.4197530864197531</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1730,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.4096385542168675</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L40">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1756,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>98</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.4078947368421053</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1782,21 +1833,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.4032258064516129</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1808,15 +1859,15 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.3809523809523809</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L43">
         <v>24</v>
@@ -1834,21 +1885,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.3684210526315789</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1860,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>48</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.3553921568627451</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L45">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1886,21 +1937,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>263</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3540856031128405</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L46">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1912,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>166</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3465346534653465</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1938,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.3240740740740741</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L48">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M48">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1964,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.302158273381295</v>
+        <v>0.3268482490272374</v>
       </c>
       <c r="L49">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="M49">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1990,21 +2041,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>97</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.3007518796992481</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M50">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2016,21 +2067,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.2945205479452055</v>
+        <v>0.3095890410958904</v>
       </c>
       <c r="L51">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="M51">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2042,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.2941176470588235</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2068,21 +2119,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.2882882882882883</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L53">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2094,21 +2145,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.2540365984930033</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="L54">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2120,21 +2171,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>693</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.2488038277511962</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L55">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2146,21 +2197,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>157</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.2476190476190476</v>
+        <v>0.2583732057416268</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2172,21 +2223,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>79</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2385321100917431</v>
+        <v>0.2421959095801938</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2198,21 +2249,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>83</v>
+        <v>704</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2348993288590604</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="M58">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2224,21 +2275,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>114</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.219435736677116</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="L59">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2250,21 +2301,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>249</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.2119205298013245</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L60">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2276,21 +2327,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.2026490066225166</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L61">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="M61">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2302,21 +2353,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>602</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.1946902654867257</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2328,21 +2379,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>91</v>
+        <v>629</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.1923076923076923</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L63">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M63">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2354,21 +2405,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.1918158567774936</v>
+        <v>0.1880794701986755</v>
       </c>
       <c r="L64">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M64">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2380,21 +2431,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>632</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.186046511627907</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="L65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2406,21 +2457,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L66">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M66">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2432,21 +2483,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.1443298969072165</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L67">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M67">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2458,47 +2509,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>249</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.1412429378531073</v>
+        <v>0.1378378378378378</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>152</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K69">
-        <v>0.1411192214111922</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L69">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M69">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2510,21 +2561,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>353</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K70">
-        <v>0.1411042944785276</v>
+        <v>0.1336515513126492</v>
       </c>
       <c r="L70">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M70">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2536,21 +2587,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>140</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K71">
-        <v>0.1402439024390244</v>
+        <v>0.1305841924398626</v>
       </c>
       <c r="L71">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M71">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2562,21 +2613,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>141</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K72">
-        <v>0.1393939393939394</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2588,21 +2639,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>142</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K73">
-        <v>0.134453781512605</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L73">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M73">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2614,47 +2665,47 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>206</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K74">
-        <v>0.1297297297297297</v>
+        <v>0.1207729468599034</v>
       </c>
       <c r="L74">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M74">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N74">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O74">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>322</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1217712177121771</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L75">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M75">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2666,21 +2717,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K76">
-        <v>0.1181818181818182</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="L76">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M76">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2692,21 +2743,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K77">
-        <v>0.1148148148148148</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="L77">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M77">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2718,99 +2769,99 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>239</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K78">
-        <v>0.1145584725536993</v>
+        <v>0.09665427509293681</v>
       </c>
       <c r="L78">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M78">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>371</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K79">
-        <v>0.1118421052631579</v>
+        <v>0.08321377331420372</v>
       </c>
       <c r="L79">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M79">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>405</v>
+        <v>639</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K80">
-        <v>0.07317073170731707</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="L80">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="M80">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="N80">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>646</v>
+        <v>992</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K81">
-        <v>0.07182835820895522</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="L81">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="M81">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2822,15 +2873,15 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>995</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K82">
-        <v>0.06557377049180328</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="L82">
         <v>24</v>
@@ -2848,111 +2899,85 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>342</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K83">
-        <v>0.05597964376590331</v>
+        <v>0.05166051660516605</v>
       </c>
       <c r="L83">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M83">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>371</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K84">
-        <v>0.05535055350553506</v>
+        <v>0.04798464491362764</v>
       </c>
       <c r="L84">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M84">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K85">
-        <v>0.05192307692307693</v>
+        <v>0.03806228373702422</v>
       </c>
       <c r="L85">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M85">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N85">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O85">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K86">
-        <v>0.04430929626411816</v>
-      </c>
-      <c r="L86">
-        <v>51</v>
-      </c>
-      <c r="M86">
-        <v>57</v>
-      </c>
-      <c r="N86">
-        <v>0.89</v>
-      </c>
-      <c r="O86">
-        <v>0.11</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>1100</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
